--- a/flows/XLE_fund_flow_data.xlsx
+++ b/flows/XLE_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6076"/>
+  <dimension ref="A1:B6088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61195,6 +61195,126 @@
         <v>76.316124</v>
       </c>
     </row>
+    <row r="6077">
+      <c r="A6077" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B6077" t="n">
+        <v>30.227518</v>
+      </c>
+    </row>
+    <row r="6078">
+      <c r="A6078" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B6078" t="n">
+        <v>-69.18313999999999</v>
+      </c>
+    </row>
+    <row r="6079">
+      <c r="A6079" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B6079" t="n">
+        <v>-4.2995586</v>
+      </c>
+    </row>
+    <row r="6080">
+      <c r="A6080" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B6080" t="n">
+        <v>-17.253342</v>
+      </c>
+    </row>
+    <row r="6081">
+      <c r="A6081" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B6081" t="n">
+        <v>-12.882922</v>
+      </c>
+    </row>
+    <row r="6082">
+      <c r="A6082" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B6082" t="n">
+        <v>-68.55681</v>
+      </c>
+    </row>
+    <row r="6083">
+      <c r="A6083" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B6083" t="n">
+        <v>-86.07751500000001</v>
+      </c>
+    </row>
+    <row r="6084">
+      <c r="A6084" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B6084" t="n">
+        <v>30.490593</v>
+      </c>
+    </row>
+    <row r="6085">
+      <c r="A6085" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B6085" t="n">
+        <v>-228.46855</v>
+      </c>
+    </row>
+    <row r="6086">
+      <c r="A6086" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B6086" t="n">
+        <v>-13.026913</v>
+      </c>
+    </row>
+    <row r="6087">
+      <c r="A6087" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B6087" t="n">
+        <v>52.26846</v>
+      </c>
+    </row>
+    <row r="6088">
+      <c r="A6088" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B6088" t="n">
+        <v>4.3919897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
